--- a/medicine/Psychotrope/Classement_des_vins_de_Graves/Classement_des_vins_de_Graves.xlsx
+++ b/medicine/Psychotrope/Classement_des_vins_de_Graves/Classement_des_vins_de_Graves.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le classement officiel des vins de Bordeaux de 1855 ne prenant pas en compte les vins de Graves (à l'exception du Château Haut-Brion), à la demande du Syndicat viticole, un jury nommé par l'Institut national de l'origine et de la qualité a établi un classement des vins de Graves en 1953. Il fut approuvé par le ministre de l'Agriculture en août de la même année. La sélection fut révisée, avec quelques ajouts, et officialisée par un décret ministériel du 16 février 1959. Ce classement porte sur les vins blancs et les vins rouges. Tous les crus promus par ce classement sont des domaines situés sur l'aire de pessac-léognan[1]. À cette époque l'appellation n'existait pas encore, elle ne fut créée qu'en 1987.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le classement officiel des vins de Bordeaux de 1855 ne prenant pas en compte les vins de Graves (à l'exception du Château Haut-Brion), à la demande du Syndicat viticole, un jury nommé par l'Institut national de l'origine et de la qualité a établi un classement des vins de Graves en 1953. Il fut approuvé par le ministre de l'Agriculture en août de la même année. La sélection fut révisée, avec quelques ajouts, et officialisée par un décret ministériel du 16 février 1959. Ce classement porte sur les vins blancs et les vins rouges. Tous les crus promus par ce classement sont des domaines situés sur l'aire de pessac-léognan. À cette époque l'appellation n'existait pas encore, elle ne fut créée qu'en 1987.
 Le classement comprend actuellement 14 crus dont six en vin rouge, deux en vin blanc et six crus en rouge et blanc :
 </t>
         </is>
